--- a/CapStatement/DEQM_Capability_Statement_Receiver_Server.xlsx
+++ b/CapStatement/DEQM_Capability_Statement_Receiver_Server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/Python/MyNotebooks/CapStatement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{410BBBAC-884F-9F46-8B64-C85CE4E18728}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26B9860-49F2-4C94-B12D-EEBD65AD3965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="99">
   <si>
     <t>Value</t>
   </si>
@@ -195,12 +194,6 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/STU3/ImplementationGuide/ig</t>
   </si>
   <si>
-    <t>davinci-deqm-producer-server</t>
-  </si>
-  <si>
-    <t>This profile defines the expected capabilities of a Da Vinci DEQM Producer Server when conforming to the Da Vinci DEQM Implementation Guide. Producers include systems that are primary producers of patient healthcare information.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that are  Da Vinci DEQM Producer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
     <t>For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html).</t>
   </si>
   <si>
@@ -330,7 +323,7 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/STU3/OperationDefinition/collect-data</t>
   </si>
   <si>
-    <t xml:space="preserve">Da Vinci DEQM Producer Server **SHALL**
+    <t xml:space="preserve">Da Vinci DEQM Receiver Server **SHALL**
 1. Support at least one transaction defined in the *Framework* Section of  this  Implementation Guide.
 1. Declare a CapabilityStatement identifying the list of supported profiles and operations.
 1. Implement the RESTful behavior according to the FHIR specification including returning the appropriate response classes as described in the FHIR specification for [FHIR RESTful API](http://hl7.org/fhir/STU3/http.html).
@@ -338,10 +331,16 @@
 </t>
   </si>
   <si>
-    <t>Da Vinci DEQM Producer Server **SHALL** be capable of supporting the [FHR Subscrption API](http://hl7.org/fhir/STU3/subscription.html) providing notifications when measure data is available.</t>
-  </si>
-  <si>
-    <t>conf_Subscription</t>
+    <t>This profile defines the expected capabilities of a Da Vinci DEQM Receiver Server when conforming to the Da Vinci DEQM Implementation Guide. Receivers include systems that are primary receivers of Measure data such as payers as well as public health and other healthcare-related agencies.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that are  Da Vinci DEQM Receiver Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>The DaVinci DEQM Receiver Server **SHALL** be capable of supporting the DEQM Summary MeasureReport Profile and  DEQM Individual MeasureReport Profile and all the DEQM and QI Core Profiles they reference.</t>
+  </si>
+  <si>
+    <t>conf_MeasureReport</t>
+  </si>
+  <si>
+    <t>receiver-server</t>
   </si>
 </sst>
 </file>
@@ -737,17 +736,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -755,23 +754,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -779,7 +778,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -787,20 +786,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -816,25 +815,25 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
       <c r="B1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -846,19 +845,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="98.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -872,186 +871,186 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
         <v>84</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1066,22 +1065,22 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1110,18 +1109,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -1141,14 +1140,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -1162,15 +1161,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1190,26 +1189,26 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1217,45 +1216,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1273,21 +1269,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" customWidth="1"/>
+    <col min="9" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1340,7 +1336,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
   </sheetData>

--- a/CapStatement/DEQM_Capability_Statement_Receiver_Server.xlsx
+++ b/CapStatement/DEQM_Capability_Statement_Receiver_Server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26B9860-49F2-4C94-B12D-EEBD65AD3965}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566C9716-15AF-4E30-B694-67B567335513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="765" yWindow="555" windowWidth="28035" windowHeight="17445" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -736,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
